--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_16.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3F4973-85D4-4D4E-8262-4D1875B73BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329BADE4-5789-4CA3-B57E-BC403B9556EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>SaD,WaD,RaP,FaD,FaP,SaP,RaD,WaP</t>
-  </si>
-  <si>
-    <t>FaP,SaP,FaN,WaP,SaN,WaN,RaP,RaN</t>
+    <t>FaP,SaP,RaD,RaP,WaD,FaD,SaD,WaP</t>
+  </si>
+  <si>
+    <t>RaP,WaP,FaP,SaP,FaN,RaN,SaN,WaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaP,SaP,FaN,WaP,SaN,WaN,RaP,RaN</v>
+        <v>RaP,WaP,FaP,SaP,FaN,RaN,SaN,WaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>SaD,WaD,RaP,FaD,FaP,SaP,RaD,WaP</v>
+        <v>FaP,SaP,RaD,RaP,WaD,FaD,SaD,WaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7195ABB9-9553-4CDF-B307-AC7553B404E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F73D8C-A434-4314-9B45-4A2369E8E188}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4B3B72-63AA-47B9-A00E-F2C46F458BC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDEF107-8895-4805-9529-A8047DD8DB29}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N4">
-        <v>0.4043961129106895</v>
+        <v>0.22555529847292924</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N5">
-        <v>0.30301943544655252</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="N6">
-        <v>0.22555529847292916</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="N7">
-        <v>0.26702915316982878</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD7B37E-4F90-41FE-B444-BD068F1A8196}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505E9CA0-8BD8-4C75-B0E1-ECF0E960D989}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_16.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329BADE4-5789-4CA3-B57E-BC403B9556EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7B61AD-39F7-40E9-B0C0-47BCF3E794D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaP,SaP,RaD,RaP,WaD,FaD,SaD,WaP</t>
-  </si>
-  <si>
-    <t>RaP,WaP,FaP,SaP,FaN,RaN,SaN,WaN</t>
+    <t>WaD,FaD,RaP,SaD,RaD,FaP,SaP,WaP</t>
+  </si>
+  <si>
+    <t>SaN,WaN,RaP,FaP,SaP,FaN,WaP,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaP,WaP,FaP,SaP,FaN,RaN,SaN,WaN</v>
+        <v>SaN,WaN,RaP,FaP,SaP,FaN,WaP,RaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaP,SaP,RaD,RaP,WaD,FaD,SaD,WaP</v>
+        <v>WaD,FaD,RaP,SaD,RaD,FaP,SaP,WaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F73D8C-A434-4314-9B45-4A2369E8E188}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6C325B-BD0E-4E1A-A32D-26EB7A05CDEE}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDEF107-8895-4805-9529-A8047DD8DB29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E349A2BA-9B6E-41D0-BB05-FEF4D6D7C403}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1726,7 +1726,7 @@
         <v>21</v>
       </c>
       <c r="N4">
-        <v>0.22555529847292924</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="N6">
-        <v>0.26702915316982878</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>0.30301943544655252</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505E9CA0-8BD8-4C75-B0E1-ECF0E960D989}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FE7888-F1FD-4A60-8592-E70C55775FE4}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_16.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7B61AD-39F7-40E9-B0C0-47BCF3E794D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA91A201-371D-4C81-8994-E6EB4EAA1291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>WaD,FaD,RaP,SaD,RaD,FaP,SaP,WaP</t>
-  </si>
-  <si>
-    <t>SaN,WaN,RaP,FaP,SaP,FaN,WaP,RaN</t>
+    <t>WaD,WaP,FaD,FaP,SaP,SaD,RaD,RaP</t>
+  </si>
+  <si>
+    <t>SaN,WaN,RaN,RaP,WaP,FaP,SaP,FaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>SaN,WaN,RaP,FaP,SaP,FaN,WaP,RaN</v>
+        <v>SaN,WaN,RaN,RaP,WaP,FaP,SaP,FaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>WaD,FaD,RaP,SaD,RaD,FaP,SaP,WaP</v>
+        <v>WaD,WaP,FaD,FaP,SaP,SaD,RaD,RaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6C325B-BD0E-4E1A-A32D-26EB7A05CDEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29418B3E-907B-469B-AB79-28FA9B2CAE8A}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E349A2BA-9B6E-41D0-BB05-FEF4D6D7C403}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05A8D46-527B-44CE-97F4-6DB9CB5D9D51}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N4">
-        <v>0.22555529847292916</v>
+        <v>0.4043961129106895</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.40439611291068944</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N6">
-        <v>0.30301943544655252</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="N7">
-        <v>0.26702915316982878</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FE7888-F1FD-4A60-8592-E70C55775FE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD05FA-A57D-4D32-BE63-FCCAC530BBF2}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_16.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA91A201-371D-4C81-8994-E6EB4EAA1291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82BBCD3-B41A-473C-BAC8-873239EFADF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>WaD,WaP,FaD,FaP,SaP,SaD,RaD,RaP</t>
-  </si>
-  <si>
-    <t>SaN,WaN,RaN,RaP,WaP,FaP,SaP,FaN</t>
+    <t>FaD,WaD,FaP,SaP,RaP,RaD,SaD,WaP</t>
+  </si>
+  <si>
+    <t>RaP,FaN,SaN,WaN,WaP,FaP,SaP,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>SaN,WaN,RaN,RaP,WaP,FaP,SaP,FaN</v>
+        <v>RaP,FaN,SaN,WaN,WaP,FaP,SaP,RaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>WaD,WaP,FaD,FaP,SaP,SaD,RaD,RaP</v>
+        <v>FaD,WaD,FaP,SaP,RaP,RaD,SaD,WaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29418B3E-907B-469B-AB79-28FA9B2CAE8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CF586D-EE76-4F4D-995B-458EF5256203}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05A8D46-527B-44CE-97F4-6DB9CB5D9D51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58582DAD-5105-4F60-81DB-33D625555EE9}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N4">
-        <v>0.4043961129106895</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="N5">
-        <v>0.26702915316982878</v>
+        <v>0.4043961129106895</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="N6">
-        <v>0.22555529847292916</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD05FA-A57D-4D32-BE63-FCCAC530BBF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C71681-11E9-4F7F-BAC4-F4200AF8C003}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_16.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts_16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82BBCD3-B41A-473C-BAC8-873239EFADF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDDF69D-A4D6-4502-9581-7EA8EE2360C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaD,WaD,FaP,SaP,RaP,RaD,SaD,WaP</t>
-  </si>
-  <si>
-    <t>RaP,FaN,SaN,WaN,WaP,FaP,SaP,RaN</t>
+    <t>RaD,WaP,SaD,FaP,SaP,WaD,FaD,RaP</t>
+  </si>
+  <si>
+    <t>RaN,FaP,SaP,SaN,WaN,FaN,RaP,WaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaP,FaN,SaN,WaN,WaP,FaP,SaP,RaN</v>
+        <v>RaN,FaP,SaP,SaN,WaN,FaN,RaP,WaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaD,WaD,FaP,SaP,RaP,RaD,SaD,WaP</v>
+        <v>RaD,WaP,SaD,FaP,SaP,WaD,FaD,RaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CF586D-EE76-4F4D-995B-458EF5256203}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1615F59D-CAF2-4E09-BFE6-A39FFBE595FF}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58582DAD-5105-4F60-81DB-33D625555EE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B573648D-E638-4930-AB35-EAAE51A70A84}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N4">
-        <v>0.22555529847292916</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N5">
-        <v>0.4043961129106895</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="N6">
-        <v>0.26702915316982878</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>0.30301943544655252</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C71681-11E9-4F7F-BAC4-F4200AF8C003}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7679AD1D-1BF7-4C70-8376-0BF4DE3B5347}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
